--- a/Files/Input file.xlsx
+++ b/Files/Input file.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skasi\Downloads\DEMO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,6 +29,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
   <si>
+    <t>Head</t>
+  </si>
+  <si>
     <t>InvoiceNo</t>
   </si>
   <si>
@@ -119,144 +125,216 @@
     <t>321 Maple St</t>
   </si>
   <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>M5H 2N2</t>
+  </si>
+  <si>
+    <t>FB004</t>
+  </si>
+  <si>
+    <t>Universal Goods</t>
+  </si>
+  <si>
+    <t>654 Cedar St</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>FB005</t>
+  </si>
+  <si>
+    <t>Bright Supplies</t>
+  </si>
+  <si>
+    <t>987 Birch St</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>W1B 5BT</t>
+  </si>
+  <si>
+    <t>FB006</t>
+  </si>
+  <si>
+    <t>Prime Logistics</t>
+  </si>
+  <si>
+    <t>135 Walnut St</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>FB007</t>
+  </si>
+  <si>
+    <t>Swift Delivery</t>
+  </si>
+  <si>
+    <t>246 Cherry St</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>FB008</t>
+  </si>
+  <si>
+    <t>Fast Movers</t>
+  </si>
+  <si>
+    <t>357 Poplar St</t>
+  </si>
+  <si>
+    <t>Cape Town</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>FB009</t>
+  </si>
+  <si>
+    <t>Eagle Express</t>
+  </si>
+  <si>
+    <t>468 Spruce St</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>FB010</t>
+  </si>
+  <si>
+    <t>Smart Shipping</t>
+  </si>
+  <si>
+    <t>579 Palm St</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>100-0001</t>
+  </si>
+  <si>
+    <t>FB011</t>
+  </si>
+  <si>
+    <t>Alpha Freight</t>
+  </si>
+  <si>
+    <t>680 Redwood St</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>FB012</t>
+  </si>
+  <si>
+    <t>Omega Shipping</t>
+  </si>
+  <si>
+    <t>791 Aspen St</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>IDF</t>
+  </si>
+  <si>
+    <t>FB013</t>
+  </si>
+  <si>
+    <t>Express Lane</t>
+  </si>
+  <si>
+    <t>802 Magnolia St</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>FB014</t>
+  </si>
+  <si>
+    <t>Allied Transport</t>
+  </si>
+  <si>
+    <t>913 Cypress St</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>01000-000</t>
+  </si>
+  <si>
+    <t>FB015</t>
+  </si>
+  <si>
+    <t>Reliable Movers</t>
+  </si>
+  <si>
+    <t>124 Dogwood St</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>FB016</t>
+  </si>
+  <si>
+    <t>Next Day Freight</t>
+  </si>
+  <si>
+    <t>235 Hickory St</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t>TX</t>
   </si>
   <si>
-    <t>FB004</t>
-  </si>
-  <si>
-    <t>Universal Goods</t>
-  </si>
-  <si>
-    <t>654 Cedar St</t>
-  </si>
-  <si>
-    <t>FB005</t>
-  </si>
-  <si>
-    <t>Bright Supplies</t>
-  </si>
-  <si>
-    <t>987 Birch St</t>
-  </si>
-  <si>
-    <t>FB006</t>
-  </si>
-  <si>
-    <t>Prime Logistics</t>
-  </si>
-  <si>
-    <t>135 Walnut St</t>
-  </si>
-  <si>
-    <t>FB007</t>
-  </si>
-  <si>
-    <t>Swift Delivery</t>
-  </si>
-  <si>
-    <t>246 Cherry St</t>
-  </si>
-  <si>
-    <t>FB008</t>
-  </si>
-  <si>
-    <t>Fast Movers</t>
-  </si>
-  <si>
-    <t>357 Poplar St</t>
-  </si>
-  <si>
-    <t>FB009</t>
-  </si>
-  <si>
-    <t>Eagle Express</t>
-  </si>
-  <si>
-    <t>468 Spruce St</t>
-  </si>
-  <si>
-    <t>San Diego</t>
-  </si>
-  <si>
-    <t>FB010</t>
-  </si>
-  <si>
-    <t>Smart Shipping</t>
-  </si>
-  <si>
-    <t>579 Palm St</t>
-  </si>
-  <si>
-    <t>FB011</t>
-  </si>
-  <si>
-    <t>Alpha Freight</t>
-  </si>
-  <si>
-    <t>680 Redwood St</t>
-  </si>
-  <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>FB012</t>
-  </si>
-  <si>
-    <t>Omega Shipping</t>
-  </si>
-  <si>
-    <t>791 Aspen St</t>
-  </si>
-  <si>
-    <t>FB013</t>
-  </si>
-  <si>
-    <t>Express Lane</t>
-  </si>
-  <si>
-    <t>802 Magnolia St</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>FB014</t>
-  </si>
-  <si>
-    <t>Allied Transport</t>
-  </si>
-  <si>
-    <t>913 Cypress St</t>
-  </si>
-  <si>
-    <t>FB015</t>
-  </si>
-  <si>
-    <t>Reliable Movers</t>
-  </si>
-  <si>
-    <t>124 Dogwood St</t>
-  </si>
-  <si>
-    <t>FB016</t>
-  </si>
-  <si>
-    <t>Next Day Freight</t>
-  </si>
-  <si>
-    <t>235 Hickory St</t>
-  </si>
-  <si>
-    <t>Austin</t>
-  </si>
-  <si>
     <t>FB017</t>
   </si>
   <si>
@@ -266,6 +344,12 @@
     <t>346 Beech St</t>
   </si>
   <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
     <t>FB018</t>
   </si>
   <si>
@@ -290,6 +374,12 @@
     <t>568 Fir St</t>
   </si>
   <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
     <t>FB020</t>
   </si>
   <si>
@@ -299,127 +389,374 @@
     <t>679 Linden St</t>
   </si>
   <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>AKL</t>
+  </si>
+  <si>
     <t>Tail</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>M5H 2N2</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>NSW</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>W1B 5BT</t>
-  </si>
-  <si>
-    <t>Munich</t>
-  </si>
-  <si>
-    <t>BY</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>MH</t>
-  </si>
-  <si>
-    <t>Cape Town</t>
-  </si>
-  <si>
-    <t>WC</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>TK</t>
-  </si>
-  <si>
-    <t>100-0001</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>IDF</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>01000-000</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>BJ</t>
-  </si>
-  <si>
-    <t>Dubai</t>
-  </si>
-  <si>
-    <t>DU</t>
-  </si>
-  <si>
-    <t>Nairobi</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>Auckland</t>
-  </si>
-  <si>
-    <t>AKL</t>
-  </si>
-  <si>
-    <t>Sao Paulo</t>
-  </si>
-  <si>
-    <t>Head</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -427,25 +764,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -494,7 +1117,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,7 +1152,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -703,95 +1326,90 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.4444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.7777777777778" customWidth="1"/>
+    <col min="3" max="4" width="10.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="10.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="11.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="9.88888888888889" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="16.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="12.8888888888889" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="12.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>100001</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>45301</v>
@@ -800,42 +1418,42 @@
         <v>45303</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>10001</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>90001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>100002</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>45302</v>
@@ -844,42 +1462,42 @@
         <v>45304</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>10001</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>60601</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>100003</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
         <v>45303</v>
@@ -888,42 +1506,42 @@
         <v>45305</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>10001</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>100004</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>45304</v>
@@ -932,42 +1550,42 @@
         <v>45306</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6">
         <v>10001</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="N6">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>100005</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <v>45305</v>
@@ -976,42 +1594,42 @@
         <v>45307</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7">
         <v>10001</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>100006</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1">
         <v>45306</v>
@@ -1020,42 +1638,42 @@
         <v>45308</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8">
         <v>10001</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>80333</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>100007</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>45307</v>
@@ -1064,42 +1682,42 @@
         <v>45309</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9">
         <v>10001</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>400001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>100008</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1">
         <v>45308</v>
@@ -1108,42 +1726,42 @@
         <v>45310</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10">
         <v>10001</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="M10" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="N10">
         <v>8001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>100009</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1">
         <v>45309</v>
@@ -1152,42 +1770,42 @@
         <v>45311</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11">
         <v>10001</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>92101</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>100010</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1">
         <v>45310</v>
@@ -1196,42 +1814,42 @@
         <v>45312</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12">
         <v>10001</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="M12" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>100011</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1">
         <v>45311</v>
@@ -1240,42 +1858,42 @@
         <v>45313</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13">
         <v>10001</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="M13" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N13">
         <v>2101</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>100012</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1">
         <v>45312</v>
@@ -1284,42 +1902,42 @@
         <v>45314</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I14">
         <v>10001</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N14">
         <v>75001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>100013</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1">
         <v>45313</v>
@@ -1328,42 +1946,42 @@
         <v>45315</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I15">
         <v>10001</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="N15">
         <v>19101</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>100014</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1">
         <v>45314</v>
@@ -1372,42 +1990,42 @@
         <v>45316</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16">
         <v>10001</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="L16" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="M16" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="N16" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>100015</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1">
         <v>45315</v>
@@ -1416,42 +2034,42 @@
         <v>45317</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I17">
         <v>10001</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="M17" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N17">
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>100016</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1">
         <v>45316</v>
@@ -1460,42 +2078,42 @@
         <v>45318</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I18">
         <v>10001</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="M18" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="N18">
         <v>73301</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>100017</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C19" s="1">
         <v>45317</v>
@@ -1504,42 +2122,42 @@
         <v>45319</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I19">
         <v>10001</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M19" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>100018</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1">
         <v>45318</v>
@@ -1548,42 +2166,42 @@
         <v>45320</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20">
         <v>10001</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="N20">
         <v>28201</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>100019</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C21" s="1">
         <v>45319</v>
@@ -1592,42 +2210,42 @@
         <v>45321</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I21">
         <v>10001</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="L21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N21">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>100020</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1">
         <v>45320</v>
@@ -1636,43 +2254,44 @@
         <v>45322</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22">
         <v>10001</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="L22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N22">
         <v>1010</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Files/Input file.xlsx
+++ b/Files/Input file.xlsx
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="125">
   <si>
     <t>Head</t>
   </si>
   <si>
+    <t>Carrier</t>
+  </si>
+  <si>
     <t>InvoiceNo</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
   </si>
   <si>
     <t>ConsigneeZip</t>
+  </si>
+  <si>
+    <t>ABC Corp.</t>
   </si>
   <si>
     <t>FB001</t>
@@ -1332,10 +1338,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4444444444444" defaultRowHeight="14.4"/>
@@ -1360,20 +1366,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
@@ -1403,890 +1409,953 @@
       <c r="N2" t="s">
         <v>14</v>
       </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
         <v>100001</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
         <v>45301</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>45303</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>10001</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3">
+        <v>90001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B4">
+        <v>100002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45302</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45304</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="I3">
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
         <v>10001</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>60601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>100003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45303</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45305</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3">
-        <v>90001</v>
+      <c r="J5">
+        <v>10001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
-        <v>100002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45302</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>100004</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1">
         <v>45304</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" s="1">
+        <v>45306</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>10001</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B7">
+        <v>100005</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45305</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45307</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="I4">
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
         <v>10001</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>100006</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45306</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45308</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>10001</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8">
+        <v>80333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>100007</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45307</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45309</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>10001</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9">
+        <v>400001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>100008</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45308</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45310</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>10001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>100009</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45311</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>10001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4">
-        <v>60601</v>
+      <c r="O11">
+        <v>92101</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
-        <v>100003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45303</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45305</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B12">
+        <v>100010</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45310</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45312</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="I5">
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
         <v>10001</v>
       </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
-        <v>100004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45304</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45306</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B13">
+        <v>100011</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45311</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45313</v>
+      </c>
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="I6">
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13">
         <v>10001</v>
       </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6">
-        <v>2000</v>
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13">
+        <v>2101</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
-        <v>100005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45305</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45307</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B14">
+        <v>100012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45312</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45314</v>
+      </c>
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="I7">
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14">
         <v>10001</v>
       </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" t="s">
-        <v>45</v>
+      <c r="K14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14">
+        <v>75001</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
-        <v>100006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45306</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45308</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="B15">
+        <v>100013</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45313</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45315</v>
+      </c>
+      <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="I8">
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15">
         <v>10001</v>
       </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8">
-        <v>80333</v>
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15">
+        <v>19101</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
-        <v>100007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45307</v>
-      </c>
-      <c r="D9" s="1">
-        <v>45309</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="B16">
+        <v>100014</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45314</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45316</v>
+      </c>
+      <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G16" t="s">
         <v>19</v>
       </c>
-      <c r="I9">
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16">
         <v>10001</v>
       </c>
-      <c r="J9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9">
-        <v>400001</v>
+      <c r="K16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
-        <v>100008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45308</v>
-      </c>
-      <c r="D10" s="1">
-        <v>45310</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="B17">
+        <v>100015</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45315</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45317</v>
+      </c>
+      <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G17" t="s">
         <v>19</v>
       </c>
-      <c r="I10">
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
         <v>10001</v>
       </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10">
-        <v>8001</v>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17">
+        <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
-        <v>100009</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45309</v>
-      </c>
-      <c r="D11" s="1">
-        <v>45311</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="B18">
+        <v>100016</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45316</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45318</v>
+      </c>
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G18" t="s">
         <v>19</v>
       </c>
-      <c r="I11">
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18">
         <v>10001</v>
       </c>
-      <c r="J11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11">
-        <v>92101</v>
+      <c r="K18" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18">
+        <v>73301</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
-        <v>100010</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45310</v>
-      </c>
-      <c r="D12" s="1">
-        <v>45312</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="B19">
+        <v>100017</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45317</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45319</v>
+      </c>
+      <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G19" t="s">
         <v>19</v>
       </c>
-      <c r="I12">
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19">
         <v>10001</v>
       </c>
-      <c r="J12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" t="s">
-        <v>70</v>
+      <c r="K19" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
-        <v>100011</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45311</v>
-      </c>
-      <c r="D13" s="1">
-        <v>45313</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="B20">
+        <v>100018</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45318</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45320</v>
+      </c>
+      <c r="F20" t="s">
         <v>18</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G20" t="s">
         <v>19</v>
       </c>
-      <c r="I13">
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20">
         <v>10001</v>
       </c>
-      <c r="J13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13">
-        <v>2101</v>
+      <c r="K20" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20">
+        <v>28201</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
-        <v>100012</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45312</v>
-      </c>
-      <c r="D14" s="1">
-        <v>45314</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="B21">
+        <v>100019</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45319</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45321</v>
+      </c>
+      <c r="F21" t="s">
         <v>18</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="I14">
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21">
         <v>10001</v>
       </c>
-      <c r="J14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14">
-        <v>75001</v>
+      <c r="K21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
-        <v>100013</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45313</v>
-      </c>
-      <c r="D15" s="1">
-        <v>45315</v>
-      </c>
-      <c r="E15" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="B22">
+        <v>100020</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45320</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45322</v>
+      </c>
+      <c r="F22" t="s">
         <v>18</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G22" t="s">
         <v>19</v>
       </c>
-      <c r="I15">
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22">
         <v>10001</v>
       </c>
-      <c r="J15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15">
-        <v>19101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
-        <v>100014</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45314</v>
-      </c>
-      <c r="D16" s="1">
-        <v>45316</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16">
-        <v>10001</v>
-      </c>
-      <c r="J16" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" t="s">
-        <v>89</v>
-      </c>
-      <c r="M16" t="s">
-        <v>90</v>
-      </c>
-      <c r="N16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17">
-        <v>100015</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45315</v>
-      </c>
-      <c r="D17" s="1">
-        <v>45317</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17">
-        <v>10001</v>
-      </c>
-      <c r="J17" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18">
-        <v>100016</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45316</v>
-      </c>
-      <c r="D18" s="1">
-        <v>45318</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18">
-        <v>10001</v>
-      </c>
-      <c r="J18" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18" t="s">
-        <v>101</v>
-      </c>
-      <c r="N18">
-        <v>73301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19">
-        <v>100017</v>
-      </c>
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="1">
-        <v>45317</v>
-      </c>
-      <c r="D19" s="1">
-        <v>45319</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19">
-        <v>10001</v>
-      </c>
-      <c r="J19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" t="s">
-        <v>106</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20">
-        <v>100018</v>
-      </c>
-      <c r="B20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45318</v>
-      </c>
-      <c r="D20" s="1">
-        <v>45320</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20">
-        <v>10001</v>
-      </c>
-      <c r="J20" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" t="s">
-        <v>111</v>
-      </c>
-      <c r="N20">
-        <v>28201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21">
-        <v>100019</v>
-      </c>
-      <c r="B21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45319</v>
-      </c>
-      <c r="D21" s="1">
-        <v>45321</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21">
-        <v>10001</v>
-      </c>
-      <c r="J21" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" t="s">
-        <v>114</v>
-      </c>
-      <c r="L21" t="s">
-        <v>115</v>
-      </c>
-      <c r="M21" t="s">
-        <v>116</v>
-      </c>
-      <c r="N21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22">
-        <v>100020</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45320</v>
-      </c>
-      <c r="D22" s="1">
-        <v>45322</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22">
-        <v>10001</v>
-      </c>
-      <c r="J22" t="s">
-        <v>118</v>
-      </c>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M22" t="s">
-        <v>121</v>
-      </c>
-      <c r="N22">
+        <v>122</v>
+      </c>
+      <c r="N22" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22">
         <v>1010</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
